--- a/Python_learning.xlsx
+++ b/Python_learning.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
